--- a/CURV.xlsx
+++ b/CURV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0DC2B1-8E8F-4652-9050-1FDC4D7570A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155F0F7B-5FA4-4933-B4AB-14B85406A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{4FBDEFEC-A4A3-43B3-BEE8-30EBEB87AAA1}"/>
   </bookViews>
@@ -218,13 +218,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -294,27 +300,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -676,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>2.4</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -684,10 +693,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>105.020625</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>53</v>
+        <v>99.196951999999996</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -699,7 +708,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H3*H2</f>
-        <v>252.04949999999997</v>
+        <v>97.21301296</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -710,10 +719,10 @@
         <v>7</v>
       </c>
       <c r="H5" s="3">
-        <v>23.693000000000001</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>53</v>
+        <v>17.213000000000001</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -721,11 +730,11 @@
         <v>8</v>
       </c>
       <c r="H6" s="3">
-        <f>16.144+268.373</f>
-        <v>284.517</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>53</v>
+        <f>14.87+16.144+260.3</f>
+        <v>291.31400000000002</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -734,7 +743,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>512.87349999999992</v>
+        <v>371.31401296000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -793,7 +802,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -884,13 +893,19 @@
       <c r="H3" s="3">
         <v>259.78199999999998</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>230.82400000000001</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3">
         <v>239.78700000000001</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="3">
+        <v>241.411</v>
+      </c>
+      <c r="M3" s="3">
+        <v>213.61500000000001</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -923,13 +938,19 @@
       <c r="H4" s="3">
         <v>17.536000000000001</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>24.864999999999998</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3">
         <v>18.253</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="3">
+        <v>13.457000000000001</v>
+      </c>
+      <c r="M4" s="3">
+        <v>12.311999999999999</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -962,13 +983,19 @@
       <c r="H5" s="3">
         <v>7.32</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>8.077</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3">
         <v>7.9249999999999998</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="3">
+        <v>7.9379999999999997</v>
+      </c>
+      <c r="M5" s="3">
+        <v>9.2260000000000009</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1001,13 +1028,19 @@
       <c r="H6" s="7">
         <v>284.63799999999998</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>263.76600000000002</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7">
         <v>265.96499999999997</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="7">
+        <v>262.80599999999998</v>
+      </c>
+      <c r="M6" s="7">
+        <v>235.15299999999999</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1056,13 +1089,19 @@
       <c r="H7" s="3">
         <v>174.38</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>168.60900000000001</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3">
         <v>164.56299999999999</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="3">
+        <v>169.31800000000001</v>
+      </c>
+      <c r="M7" s="3">
+        <v>152.977</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1101,7 +1140,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:K8" si="0">+D6-D7</f>
+        <f t="shared" ref="D8:M8" si="0">+D6-D7</f>
         <v>0</v>
       </c>
       <c r="E8" s="3">
@@ -1122,7 +1161,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95.157000000000011</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
@@ -1132,8 +1171,14 @@
         <f t="shared" si="0"/>
         <v>101.40199999999999</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>93.487999999999971</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="0"/>
+        <v>82.175999999999988</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3">
@@ -1194,13 +1239,19 @@
       <c r="H9" s="3">
         <v>76.837999999999994</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>74.899000000000001</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="11">
         <v>70.016000000000005</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="3">
+        <v>70.510999999999996</v>
+      </c>
+      <c r="M9" s="3">
+        <v>66.256</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1249,13 +1300,19 @@
       <c r="H10" s="3">
         <v>13.007</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>13.055999999999999</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
         <v>15.359</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="3">
+        <v>12.817</v>
+      </c>
+      <c r="M10" s="3">
+        <v>15.715</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1315,18 +1372,24 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" ref="I11" si="7">+I8-SUM(I9:I10)</f>
-        <v>0</v>
+        <v>7.2020000000000124</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" ref="J11:K11" si="8">+J8-SUM(J9:J10)</f>
+        <f t="shared" ref="J11:M11" si="8">+J8-SUM(J9:J10)</f>
         <v>0</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="8"/>
         <v>16.026999999999987</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <f t="shared" si="8"/>
+        <v>10.159999999999968</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="8"/>
+        <v>0.20499999999998408</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3">
@@ -1387,13 +1450,19 @@
       <c r="H12" s="3">
         <v>9.1419999999999995</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>8.7840000000000007</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3">
         <v>8.1609999999999996</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3">
+        <v>8.1189999999999998</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7.9059999999999997</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1442,13 +1511,19 @@
       <c r="H13" s="3">
         <v>0.124</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>0.36199999999999999</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>-0.25900000000000001</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1508,18 +1583,24 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14" si="15">+I11-I12+I13</f>
-        <v>0</v>
+        <v>-1.2199999999999882</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14:K14" si="16">+J11-J12+J13</f>
+        <f t="shared" ref="J14:M14" si="16">+J11-J12+J13</f>
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="16"/>
         <v>8.5719999999999867</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="3">
+        <f t="shared" si="16"/>
+        <v>2.0539999999999683</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="16"/>
+        <v>-7.960000000000016</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3">
@@ -1580,13 +1661,19 @@
       <c r="H15" s="3">
         <v>3.0670000000000002</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>-2.5999999999999999E-2</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3">
         <v>2.6320000000000001</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="3">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-1.534</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -1646,18 +1733,24 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" ref="I16" si="23">+I14-I15</f>
-        <v>0</v>
+        <v>-1.1939999999999882</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16:K16" si="24">+J14-J15</f>
+        <f t="shared" ref="J16:M16" si="24">+J14-J15</f>
         <v>0</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="24"/>
         <v>5.9399999999999871</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="3">
+        <f t="shared" si="24"/>
+        <v>1.5669999999999682</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="24"/>
+        <v>-6.4260000000000161</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3">
@@ -1765,20 +1858,26 @@
         <f t="shared" ref="H18" si="30">H16/H19</f>
         <v>7.9693779904306067E-2</v>
       </c>
-      <c r="I18" s="8" t="e">
+      <c r="I18" s="8">
         <f t="shared" ref="I18" si="31">I16/I19</f>
-        <v>#DIV/0!</v>
+        <v>-1.1404229307149977E-2</v>
       </c>
       <c r="J18" s="8" t="e">
-        <f t="shared" ref="J18:K18" si="32">J16/J19</f>
+        <f t="shared" ref="J18:M18" si="32">J16/J19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" si="32"/>
         <v>5.6617261592717787E-2</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="L18" s="8">
+        <f t="shared" si="32"/>
+        <v>1.5292280667512132E-2</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="32"/>
+        <v>-6.4803703068746943E-2</v>
+      </c>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
       <c r="P18" s="8" t="e">
@@ -1839,13 +1938,19 @@
       <c r="H19" s="3">
         <v>104.5</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>104.69799999999999</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3">
         <v>104.91500000000001</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="3">
+        <v>102.47</v>
+      </c>
+      <c r="M19" s="3">
+        <v>99.161000000000001</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -1934,7 +2039,7 @@
       </c>
       <c r="I21" s="12">
         <f t="shared" si="34"/>
-        <v>-1</v>
+        <v>-8.7769415931162276E-2</v>
       </c>
       <c r="J21" s="12" t="e">
         <f t="shared" si="34"/>
@@ -1944,16 +2049,25 @@
         <f>+K6/G6-1</f>
         <v>-4.9347502064188364E-2</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="L21" s="12">
+        <f t="shared" ref="L21:N21" si="35">+L6/H6-1</f>
+        <v>-7.6700932412397504E-2</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="35"/>
+        <v>-0.10847872735682396</v>
+      </c>
+      <c r="N21" s="12" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="9">
-        <f t="shared" ref="T21" si="35">T6/S6-1</f>
+        <f t="shared" ref="T21" si="36">T6/S6-1</f>
         <v>-7.0355384495606188E-3</v>
       </c>
       <c r="U21" s="9">
@@ -1983,72 +2097,72 @@
         <v>51</v>
       </c>
       <c r="C22" s="9" t="e">
-        <f t="shared" ref="C22:J22" si="36">+C8/C6</f>
+        <f t="shared" ref="C22:J22" si="37">+C8/C6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D22" s="9" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="36"/>
-        <v>0.3551067979968458</v>
-      </c>
-      <c r="F22" s="9" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="9">
-        <f t="shared" si="36"/>
-        <v>0.41255526841595452</v>
-      </c>
-      <c r="H22" s="9">
-        <f t="shared" si="36"/>
-        <v>0.38736219338247174</v>
-      </c>
-      <c r="I22" s="9" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="9" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" ref="K22:N22" si="37">+K8/K6</f>
-        <v>0.38126069219634162</v>
-      </c>
-      <c r="L22" s="9" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="9" t="e">
+      <c r="E22" s="9">
+        <f t="shared" si="37"/>
+        <v>0.3551067979968458</v>
+      </c>
+      <c r="F22" s="9" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="9" t="e">
+      <c r="G22" s="9">
+        <f t="shared" si="37"/>
+        <v>0.41255526841595452</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="37"/>
+        <v>0.38736219338247174</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="37"/>
+        <v>0.36076294897750277</v>
+      </c>
+      <c r="J22" s="9" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K22" s="9">
+        <f t="shared" ref="K22:N22" si="38">+K8/K6</f>
+        <v>0.38126069219634162</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="38"/>
+        <v>0.355730082266006</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="38"/>
+        <v>0.34945758718791592</v>
+      </c>
+      <c r="N22" s="9" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="9" t="e">
-        <f t="shared" ref="P22:T22" si="38">+P8/P6</f>
+        <f t="shared" ref="P22:T22" si="39">+P8/P6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="9" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R22" s="9" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.41428891881495844</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.35674505334807288</v>
       </c>
       <c r="U22" s="9">
@@ -2078,72 +2192,72 @@
         <v>50</v>
       </c>
       <c r="C23" s="9" t="e">
-        <f t="shared" ref="C23:J23" si="39">+C10/C6</f>
+        <f t="shared" ref="C23:J23" si="40">+C10/C6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" s="9" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="39"/>
-        <v>4.460753119552887E-2</v>
-      </c>
-      <c r="F23" s="9" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="9">
-        <f t="shared" si="39"/>
-        <v>4.5794596294826836E-2</v>
-      </c>
-      <c r="H23" s="9">
-        <f t="shared" si="39"/>
-        <v>4.5696639240017149E-2</v>
-      </c>
-      <c r="I23" s="9" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="9" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="9">
-        <f t="shared" ref="K23:N23" si="40">+K10/K6</f>
-        <v>5.7748199951121397E-2</v>
-      </c>
-      <c r="L23" s="9" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="9" t="e">
+      <c r="E23" s="9">
+        <f t="shared" si="40"/>
+        <v>4.460753119552887E-2</v>
+      </c>
+      <c r="F23" s="9" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="9" t="e">
+      <c r="G23" s="9">
+        <f t="shared" si="40"/>
+        <v>4.5794596294826836E-2</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="40"/>
+        <v>4.5696639240017149E-2</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="40"/>
+        <v>4.9498419053251738E-2</v>
+      </c>
+      <c r="J23" s="9" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K23" s="9">
+        <f t="shared" ref="K23:N23" si="41">+K10/K6</f>
+        <v>5.7748199951121397E-2</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="41"/>
+        <v>4.8769814996613474E-2</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="41"/>
+        <v>6.682883059114704E-2</v>
+      </c>
+      <c r="N23" s="9" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="9" t="e">
-        <f t="shared" ref="P23:T23" si="41">+P10/P6</f>
+        <f t="shared" ref="P23:T23" si="42">+P10/P6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="9" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="9" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.0588281091614629E-2</v>
       </c>
       <c r="T23" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.6532841048826844E-2</v>
       </c>
       <c r="U23" s="9">
@@ -2173,72 +2287,72 @@
         <v>52</v>
       </c>
       <c r="C24" s="9" t="e">
-        <f t="shared" ref="C24:J24" si="42">+C15/C14</f>
+        <f t="shared" ref="C24:J24" si="43">+C15/C14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="9" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="42"/>
-        <v>0.37878361915471825</v>
-      </c>
-      <c r="F24" s="9" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="9">
-        <f t="shared" si="42"/>
-        <v>0.26921229586935597</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="42"/>
-        <v>0.26915313734093943</v>
-      </c>
-      <c r="I24" s="9" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="9" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" ref="K24:N24" si="43">+K15/K14</f>
-        <v>0.30704619692020579</v>
-      </c>
-      <c r="L24" s="9" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="9" t="e">
+      <c r="E24" s="9">
+        <f t="shared" si="43"/>
+        <v>0.37878361915471825</v>
+      </c>
+      <c r="F24" s="9" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="9" t="e">
+      <c r="G24" s="9">
+        <f t="shared" si="43"/>
+        <v>0.26921229586935597</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="43"/>
+        <v>0.26915313734093943</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="43"/>
+        <v>2.1311475409836269E-2</v>
+      </c>
+      <c r="J24" s="9" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K24" s="9">
+        <f t="shared" ref="K24:N24" si="44">+K15/K14</f>
+        <v>0.30704619692020579</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="44"/>
+        <v>0.23709834469328506</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="44"/>
+        <v>0.1927135678391956</v>
+      </c>
+      <c r="N24" s="9" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="9" t="e">
-        <f t="shared" ref="P24:T24" si="44">+P15/P14</f>
+        <f t="shared" ref="P24:T24" si="45">+P15/P14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="9" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="9" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2.8917177332743793</v>
       </c>
       <c r="T24" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.29955916408582345</v>
       </c>
       <c r="U24" s="9">
